--- a/Individual.xlsx
+++ b/Individual.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="346">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -210,6 +210,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Patient.implicitRules</t>
   </si>
   <si>
@@ -332,6 +336,24 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ga4gh.org/fhir/phenopackets/StructureDefinition/individual-age}
+</t>
+  </si>
+  <si>
+    <t>An age object describing the age of the individual at the time of collection of biospecimens or phenotypic observations reported in the current Phenopacket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>karyotypic-sex</t>
   </si>
   <si>
@@ -346,14 +368,6 @@
   </si>
   <si>
     <t xml:space="preserve"> This element represents the chromosomal sex of an individual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>taxonomy</t>
@@ -531,7 +545,7 @@
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -743,10 +757,6 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -921,10 +931,6 @@
   </si>
   <si>
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -1093,7 +1099,7 @@
     <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
     <t>typeCode</t>
@@ -1245,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1264,7 +1270,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="149.33203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1738,7 +1744,7 @@
         <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>44</v>
@@ -1758,7 +1764,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1781,16 +1787,16 @@
         <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1840,7 +1846,7 @@
         <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -1852,7 +1858,7 @@
         <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>44</v>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1895,16 +1901,16 @@
         <v>44</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1930,13 +1936,13 @@
         <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>44</v>
@@ -1954,7 +1960,7 @@
         <v>44</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -1966,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>44</v>
@@ -1986,11 +1992,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2009,16 +2015,16 @@
         <v>44</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2068,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -2080,10 +2086,10 @@
         <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>44</v>
@@ -2100,11 +2106,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2123,16 +2129,16 @@
         <v>44</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2182,7 +2188,7 @@
         <v>44</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -2197,7 +2203,7 @@
         <v>44</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>44</v>
@@ -2214,7 +2220,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2237,13 +2243,13 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2282,17 +2288,17 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -2304,7 +2310,7 @@
         <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>44</v>
@@ -2324,16 +2330,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s" s="2">
         <v>42</v>
@@ -2351,10 +2357,10 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>105</v>
@@ -2408,7 +2414,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2420,7 +2426,7 @@
         <v>106</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>44</v>
@@ -2440,10 +2446,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>44</v>
@@ -2524,7 +2530,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2536,7 +2542,7 @@
         <v>106</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>44</v>
@@ -2554,32 +2560,36 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>114</v>
@@ -2587,12 +2597,8 @@
       <c r="L12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>44</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2649,13 +2655,13 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>44</v>
@@ -2670,13 +2676,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2686,26 +2692,28 @@
         <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -2754,7 +2762,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2766,27 +2774,27 @@
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2797,106 +2805,102 @@
         <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>44</v>
@@ -2904,7 +2908,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2915,104 +2919,106 @@
         <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Q15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -3020,7 +3026,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3043,19 +3049,19 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3104,7 +3110,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3116,27 +3122,27 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3147,10 +3153,10 @@
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>44</v>
@@ -3159,19 +3165,19 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3196,13 +3202,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3220,31 +3226,31 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3252,7 +3258,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3275,19 +3281,19 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3312,13 +3318,13 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3336,7 +3342,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3348,27 +3354,27 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3382,28 +3388,28 @@
         <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3452,7 +3458,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3464,27 +3470,27 @@
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3495,31 +3501,31 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3568,31 +3574,31 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -3600,7 +3606,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3611,7 +3617,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -3620,20 +3626,22 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N21" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -3658,13 +3666,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -3682,31 +3690,31 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3714,7 +3722,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3737,19 +3745,17 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3774,13 +3780,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -3798,7 +3804,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3810,19 +3816,19 @@
         <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3830,7 +3836,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3841,7 +3847,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -3853,19 +3859,19 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3914,31 +3920,31 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -3946,7 +3952,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3969,19 +3975,19 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4030,7 +4036,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4042,19 +4048,19 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4062,7 +4068,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4073,7 +4079,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4085,16 +4091,20 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4142,25 +4152,25 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -4174,18 +4184,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4197,17 +4207,15 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4256,13 +4264,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4271,7 +4279,7 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>44</v>
@@ -4288,11 +4296,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4305,26 +4313,24 @@
         <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4372,7 +4378,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4384,10 +4390,10 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>44</v>
@@ -4404,11 +4410,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4421,23 +4427,25 @@
         <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4462,13 +4470,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4486,7 +4494,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4498,19 +4506,19 @@
         <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4518,7 +4526,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4529,7 +4537,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4541,17 +4549,17 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4576,13 +4584,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4600,31 +4608,31 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4632,7 +4640,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4643,7 +4651,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -4655,19 +4663,17 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4716,31 +4722,31 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4748,7 +4754,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4759,7 +4765,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -4771,17 +4777,19 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4830,31 +4838,31 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4862,7 +4870,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4885,17 +4893,17 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -4920,13 +4928,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -4944,7 +4952,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4956,19 +4964,19 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -4976,7 +4984,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4999,17 +5007,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>271</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5034,13 +5042,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5058,7 +5066,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5067,22 +5075,22 @@
         <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5090,7 +5098,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5113,16 +5121,18 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5170,7 +5180,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5179,22 +5189,22 @@
         <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5202,7 +5212,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5213,7 +5223,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5225,20 +5235,16 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5286,25 +5292,25 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5318,7 +5324,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5329,7 +5335,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>44</v>
@@ -5341,16 +5347,20 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5398,25 +5408,25 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5430,18 +5440,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5453,17 +5463,15 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5512,13 +5520,13 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
@@ -5527,7 +5535,7 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5544,11 +5552,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5561,26 +5569,24 @@
         <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5628,7 +5634,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5640,10 +5646,10 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -5660,42 +5666,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>297</v>
+        <v>120</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>298</v>
+        <v>121</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5720,13 +5726,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -5744,31 +5750,31 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5776,7 +5782,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5784,7 +5790,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>51</v>
@@ -5799,19 +5805,19 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5836,13 +5842,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -5860,10 +5866,10 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>51</v>
@@ -5872,19 +5878,19 @@
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -5892,18 +5898,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>44</v>
@@ -5915,18 +5921,20 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>133</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -5974,31 +5982,31 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6006,18 +6014,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6026,23 +6034,21 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6090,31 +6096,31 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>323</v>
+        <v>140</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6122,7 +6128,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6133,31 +6139,31 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6206,25 +6212,25 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6238,7 +6244,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6249,28 +6255,32 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6318,25 +6328,25 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
@@ -6350,18 +6360,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6373,17 +6383,15 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6432,13 +6440,13 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -6447,7 +6455,7 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6464,11 +6472,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6481,26 +6489,24 @@
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6548,7 +6554,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6560,10 +6566,10 @@
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
@@ -6580,41 +6586,43 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>334</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -6662,31 +6670,31 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6694,7 +6702,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6717,15 +6725,17 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -6750,13 +6760,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -6774,7 +6784,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -6786,26 +6796,138 @@
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN48">
+  <autoFilter ref="A1:AN49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6815,7 +6937,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI47">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
